--- a/results/ExternalCauses.xlsx
+++ b/results/ExternalCauses.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\RosBRIS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF2E61-7477-4006-904E-05746D9DF802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FBD04-5F0F-41DC-9FEC-855CA909252C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="2265" windowWidth="25905" windowHeight="21255" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
+    <workbookView xWindow="8790" yWindow="2265" windowWidth="25905" windowHeight="21255" activeTab="1" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>Неблагоприятные реакции на лекарственные и другие вещества</t>
   </si>
@@ -92,6 +93,15 @@
   <si>
     <t>% причины</t>
   </si>
+  <si>
+    <t>Годовая доля смертей от внешних причин, 1966-1990, оба пола</t>
+  </si>
+  <si>
+    <t>Годовая доля смертей от внешних причин, 1966-1990, мужчины</t>
+  </si>
+  <si>
+    <t>Годовая доля смертей от внешних причин, 1966-1990, женщины</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -151,6 +161,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +178,3104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>6.6562460000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6670360000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0040839999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0904449999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.218674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3204370000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1484709999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9402860000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4301450000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2871509999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3980059999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7025189999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6452999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5558189999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4991349999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5270099999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3152759999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0415479999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9191950000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0793359999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9928850000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8209460000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1841109999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.8825260000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.081531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74BB-4072-BF19-7E653AFD63AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="765994304"/>
+        <c:axId val="765994632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="765994304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765994632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="765994632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765994304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$32:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$32:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10.563454999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.713066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.186551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.309032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.520161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.64997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.425935000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.112444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.727679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.553717000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.682214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.036557</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.888059</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.828402000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.726924</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.81503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.459783</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.075951999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.919328999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.6666039999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9885599999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.7328590000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3544280000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.612850999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.845208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B608-40A1-9552-59E8B1E6017F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="767192224"/>
+        <c:axId val="767192552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="767192224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767192552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="767192552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767192224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$61:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$61:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.9407179999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8434149999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9680249999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9887959999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0224340000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0803579999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.037191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9865200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2359360000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1526040000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2434470000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.370889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.402066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3119010000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3055110000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2711290000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2231730000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1107399999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0686619999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7895300000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3935390000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3027540000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4070870000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4397229999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5218470000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7A0-40CE-9BCD-BE9CF53B713B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="816691440"/>
+        <c:axId val="816691768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="816691440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816691768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="816691768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816691440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F93EF4F-7DDD-4F88-BC03-4E6969124E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E2B5DD-D66D-4D24-A7EB-C4C1B888BF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77BB852-A9E0-465A-ACC3-9A1D20867AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1F0746-641B-49AD-81F7-E7E4BD2274DB}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1200,4 +4310,636 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5AD270-4DE4-4DF9-98BB-EB68CF870FDE}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1966</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6.6562460000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1967</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6.6670360000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1968</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.0040839999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1969</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7.0904449999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1970</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7.218674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1971</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.3204370000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1972</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7.1484709999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1973</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6.9402860000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1974</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7.4301450000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>1975</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7.2871509999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>1976</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7.3980059999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>1977</v>
+      </c>
+      <c r="B14" s="5">
+        <v>7.7025189999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>1978</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7.6452999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1979</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.5558189999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1980</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7.4991349999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>1981</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7.5270099999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>1982</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7.3152759999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>1983</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7.0415479999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1984</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6.9191950000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>1985</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6.0793359999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>1986</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4.9928850000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>1987</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4.8209460000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>1988</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5.1841109999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>1989</v>
+      </c>
+      <c r="B26" s="5">
+        <v>9.8825260000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>1990</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10.081531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>1966</v>
+      </c>
+      <c r="B32" s="5">
+        <v>10.563454999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>1967</v>
+      </c>
+      <c r="B33" s="5">
+        <v>10.713066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>1968</v>
+      </c>
+      <c r="B34" s="5">
+        <v>11.186551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>1969</v>
+      </c>
+      <c r="B35" s="5">
+        <v>11.309032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>1970</v>
+      </c>
+      <c r="B36" s="5">
+        <v>11.520161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>1971</v>
+      </c>
+      <c r="B37" s="5">
+        <v>11.64997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>1972</v>
+      </c>
+      <c r="B38" s="5">
+        <v>11.425935000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>1973</v>
+      </c>
+      <c r="B39" s="5">
+        <v>11.112444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>1974</v>
+      </c>
+      <c r="B40" s="5">
+        <v>11.727679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>1975</v>
+      </c>
+      <c r="B41" s="5">
+        <v>11.553717000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>1976</v>
+      </c>
+      <c r="B42" s="5">
+        <v>11.682214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>1977</v>
+      </c>
+      <c r="B43" s="5">
+        <v>12.036557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>1978</v>
+      </c>
+      <c r="B44" s="5">
+        <v>11.888059</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>1979</v>
+      </c>
+      <c r="B45" s="5">
+        <v>11.828402000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>1980</v>
+      </c>
+      <c r="B46" s="5">
+        <v>11.726924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>1981</v>
+      </c>
+      <c r="B47" s="5">
+        <v>11.81503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>1982</v>
+      </c>
+      <c r="B48" s="5">
+        <v>11.459783</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>1983</v>
+      </c>
+      <c r="B49" s="5">
+        <v>11.075951999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>1984</v>
+      </c>
+      <c r="B50" s="5">
+        <v>10.919328999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>1985</v>
+      </c>
+      <c r="B51" s="5">
+        <v>9.6666039999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>1986</v>
+      </c>
+      <c r="B52" s="5">
+        <v>7.9885599999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>1987</v>
+      </c>
+      <c r="B53" s="5">
+        <v>7.7328590000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>1988</v>
+      </c>
+      <c r="B54" s="5">
+        <v>8.3544280000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>1989</v>
+      </c>
+      <c r="B55" s="5">
+        <v>15.612850999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>1990</v>
+      </c>
+      <c r="B56" s="5">
+        <v>15.845208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>1966</v>
+      </c>
+      <c r="B61" s="5">
+        <v>2.9407179999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>1967</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2.8434149999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>1968</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2.9680249999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>1969</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2.9887959999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>1970</v>
+      </c>
+      <c r="B65" s="5">
+        <v>3.0224340000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>1971</v>
+      </c>
+      <c r="B66" s="5">
+        <v>3.0803579999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>1972</v>
+      </c>
+      <c r="B67" s="5">
+        <v>3.037191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>1973</v>
+      </c>
+      <c r="B68" s="5">
+        <v>2.9865200000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>1974</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3.2359360000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>1975</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3.1526040000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>1976</v>
+      </c>
+      <c r="B71" s="5">
+        <v>3.2434470000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>1977</v>
+      </c>
+      <c r="B72" s="5">
+        <v>3.370889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>1978</v>
+      </c>
+      <c r="B73" s="5">
+        <v>3.402066</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>1979</v>
+      </c>
+      <c r="B74" s="5">
+        <v>3.3119010000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>1980</v>
+      </c>
+      <c r="B75" s="5">
+        <v>3.3055110000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>1981</v>
+      </c>
+      <c r="B76" s="5">
+        <v>3.2711290000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>1982</v>
+      </c>
+      <c r="B77" s="5">
+        <v>3.2231730000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>1983</v>
+      </c>
+      <c r="B78" s="5">
+        <v>3.1107399999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>1984</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3.0686619999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>1985</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2.7895300000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>1986</v>
+      </c>
+      <c r="B81" s="5">
+        <v>2.3935390000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>1987</v>
+      </c>
+      <c r="B82" s="5">
+        <v>2.3027540000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>1988</v>
+      </c>
+      <c r="B83" s="5">
+        <v>2.4070870000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>1989</v>
+      </c>
+      <c r="B84" s="5">
+        <v>4.4397229999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>1990</v>
+      </c>
+      <c r="B85" s="5">
+        <v>4.5218470000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/results/ExternalCauses.xlsx
+++ b/results/ExternalCauses.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\RosBRIS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FBD04-5F0F-41DC-9FEC-855CA909252C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C1767A-AC63-421D-BFA2-F21D9AFCBAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="2265" windowWidth="25905" windowHeight="21255" activeTab="1" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="2" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Неблагоприятные реакции на лекарственные и другие вещества</t>
   </si>
@@ -101,6 +102,18 @@
   </si>
   <si>
     <t>Годовая доля смертей от внешних причин, 1966-1990, женщины</t>
+  </si>
+  <si>
+    <t>Годовая доля смертей от внешних причин, 1959-1990, мужчины</t>
+  </si>
+  <si>
+    <t>год</t>
+  </si>
+  <si>
+    <t>смерти от других случайных отравлений</t>
+  </si>
+  <si>
+    <t>смерти от отравления алкоголем</t>
   </si>
 </sst>
 </file>
@@ -1497,6 +1510,1207 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$90:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$90:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7.8892749999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1289719999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8664020000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6916639999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7874280000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3270669999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9523980000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.563454999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.713066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.186551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.309032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.520161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.64997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.425935000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.112444</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.727679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.553717000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.682214</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.036557</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.888059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.828402000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.726924</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.81503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.459783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.075951999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.919328999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6666039999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9885599999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.7328590000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.3544280000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.612850999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.845208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87C1-4607-8050-88EEBF08278C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="820411248"/>
+        <c:axId val="820411576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="820411248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820411576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="820411576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820411248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>смерти от отравления алкоголем</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8417</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18686</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18590</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26585</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29554</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31781</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32057</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28688</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27617</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27409</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23512</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13458</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11675</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11386</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41360</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2748-4FCD-8EB9-71E638E18BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>смерти от других случайных отравлений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>5123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6770</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8242</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8731</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9085</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9617</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11922</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12628</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14205</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12789</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12867</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14117</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11443</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11249</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11313</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37639</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2748-4FCD-8EB9-71E638E18BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="839001512"/>
+        <c:axId val="839001840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="839001512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1990"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839001840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="839001840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839001512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1617,6 +2831,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2650,6 +3944,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3270,6 +5596,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF90AF63-9496-4402-9935-86A5B987C3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECEB2A4-6973-4D7F-AD0D-B583708BA1F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4314,10 +6717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5AD270-4DE4-4DF9-98BB-EB68CF870FDE}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4937,6 +7340,647 @@
         <v>4.5218470000000002</v>
       </c>
     </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>1959</v>
+      </c>
+      <c r="B90" s="5">
+        <v>7.8892749999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>1960</v>
+      </c>
+      <c r="B91" s="5">
+        <v>8.1289719999999992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>1961</v>
+      </c>
+      <c r="B92" s="5">
+        <v>8.8664020000000008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>1962</v>
+      </c>
+      <c r="B93" s="5">
+        <v>8.6916639999999994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>1963</v>
+      </c>
+      <c r="B94" s="5">
+        <v>8.7874280000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>1964</v>
+      </c>
+      <c r="B95" s="5">
+        <v>9.3270669999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>1965</v>
+      </c>
+      <c r="B96" s="5">
+        <v>9.9523980000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>1966</v>
+      </c>
+      <c r="B97" s="5">
+        <v>10.563454999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>1967</v>
+      </c>
+      <c r="B98" s="5">
+        <v>10.713066</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>1968</v>
+      </c>
+      <c r="B99" s="5">
+        <v>11.186551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>1969</v>
+      </c>
+      <c r="B100" s="5">
+        <v>11.309032</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>1970</v>
+      </c>
+      <c r="B101" s="5">
+        <v>11.520161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>1971</v>
+      </c>
+      <c r="B102" s="5">
+        <v>11.64997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>1972</v>
+      </c>
+      <c r="B103" s="5">
+        <v>11.425935000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>1973</v>
+      </c>
+      <c r="B104" s="5">
+        <v>11.112444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>1974</v>
+      </c>
+      <c r="B105" s="5">
+        <v>11.727679</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>1975</v>
+      </c>
+      <c r="B106" s="5">
+        <v>11.553717000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>1976</v>
+      </c>
+      <c r="B107" s="5">
+        <v>11.682214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>1977</v>
+      </c>
+      <c r="B108" s="5">
+        <v>12.036557</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>1978</v>
+      </c>
+      <c r="B109" s="5">
+        <v>11.888059</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>1979</v>
+      </c>
+      <c r="B110" s="5">
+        <v>11.828402000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>1980</v>
+      </c>
+      <c r="B111" s="5">
+        <v>11.726924</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>1981</v>
+      </c>
+      <c r="B112" s="5">
+        <v>11.81503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>1982</v>
+      </c>
+      <c r="B113" s="5">
+        <v>11.459783</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>1983</v>
+      </c>
+      <c r="B114" s="5">
+        <v>11.075951999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>1984</v>
+      </c>
+      <c r="B115" s="5">
+        <v>10.919328999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
+        <v>1985</v>
+      </c>
+      <c r="B116" s="5">
+        <v>9.6666039999999995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
+        <v>1986</v>
+      </c>
+      <c r="B117" s="5">
+        <v>7.9885599999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
+        <v>1987</v>
+      </c>
+      <c r="B118" s="5">
+        <v>7.7328590000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
+        <v>1988</v>
+      </c>
+      <c r="B119" s="5">
+        <v>8.3544280000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
+        <v>1989</v>
+      </c>
+      <c r="B120" s="5">
+        <v>15.612850999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
+        <v>1990</v>
+      </c>
+      <c r="B121" s="5">
+        <v>15.845208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA190A-905E-48CF-A4AB-04C8C10EA8F5}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1959</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7728</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1960</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7604</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1961</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8074</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1962</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8189</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1963</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8042</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1964</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8417</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1965</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9787</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1966</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10715</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1967</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12718</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1968</v>
+      </c>
+      <c r="B11" s="1">
+        <v>16138</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>1969</v>
+      </c>
+      <c r="B12" s="1">
+        <v>18101</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>1970</v>
+      </c>
+      <c r="B13" s="1">
+        <v>18686</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>1971</v>
+      </c>
+      <c r="B14" s="1">
+        <v>18590</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>1972</v>
+      </c>
+      <c r="B15" s="1">
+        <v>18907</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1973</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20269</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1974</v>
+      </c>
+      <c r="B17" s="1">
+        <v>21539</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>1975</v>
+      </c>
+      <c r="B18" s="1">
+        <v>23191</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>1976</v>
+      </c>
+      <c r="B19" s="1">
+        <v>26585</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>1977</v>
+      </c>
+      <c r="B20" s="1">
+        <v>28103</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1978</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29554</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>1979</v>
+      </c>
+      <c r="B22" s="1">
+        <v>31781</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>1980</v>
+      </c>
+      <c r="B23" s="1">
+        <v>32057</v>
+      </c>
+      <c r="C23" s="1">
+        <v>14205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>1981</v>
+      </c>
+      <c r="B24" s="1">
+        <v>28688</v>
+      </c>
+      <c r="C24" s="1">
+        <v>12789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>1982</v>
+      </c>
+      <c r="B25" s="1">
+        <v>27617</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>1983</v>
+      </c>
+      <c r="B26" s="1">
+        <v>27409</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>1984</v>
+      </c>
+      <c r="B27" s="1">
+        <v>27955</v>
+      </c>
+      <c r="C27" s="1">
+        <v>14448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>1985</v>
+      </c>
+      <c r="B28" s="1">
+        <v>23512</v>
+      </c>
+      <c r="C28" s="1">
+        <v>14117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>1986</v>
+      </c>
+      <c r="B29" s="1">
+        <v>13458</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>1987</v>
+      </c>
+      <c r="B30" s="1">
+        <v>11675</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>1988</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11386</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>1989</v>
+      </c>
+      <c r="B32" s="1">
+        <v>41360</v>
+      </c>
+      <c r="C32" s="1">
+        <v>37639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>1990</v>
+      </c>
+      <c r="B33" s="1">
+        <v>51187</v>
+      </c>
+      <c r="C33" s="1">
+        <v>38313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results/ExternalCauses.xlsx
+++ b/results/ExternalCauses.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\RosBRIS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C1767A-AC63-421D-BFA2-F21D9AFCBAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836F510-2D33-4905-AF1D-CBCA598151B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="2" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
+    <workbookView xWindow="3855" yWindow="1695" windowWidth="24750" windowHeight="19320" activeTab="3" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Неблагоприятные реакции на лекарственные и другие вещества</t>
   </si>
@@ -114,6 +115,18 @@
   </si>
   <si>
     <t>смерти от отравления алкоголем</t>
+  </si>
+  <si>
+    <t>Количество смертей от внешних причин по возрастам, 1966-1990, пол=M</t>
+  </si>
+  <si>
+    <t>Количество смертей от внешних причин по возрастам, 1966-1990, пол=F</t>
+  </si>
+  <si>
+    <t>смерти</t>
+  </si>
+  <si>
+    <t>возраст</t>
   </si>
 </sst>
 </file>
@@ -2711,6 +2724,873 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>смерти</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$4:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>38524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>234008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>427545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>544043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>599962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>602880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>568248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>491362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>461386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315912</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>214037</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31854</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A4C-48C9-ADF7-4813D30523AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="756727624"/>
+        <c:axId val="756727952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="756727624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>мужчины, возраст</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756727952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="756727952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756727624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>смерти</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$27:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$27:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>30589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85411</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123439</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>138311</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82820</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61662</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DBF-4158-A993-B4A2E5E6808E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755323408"/>
+        <c:axId val="755323736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755323408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>женщины, возраст</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755323736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="755323736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755323408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2911,6 +3791,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4976,6 +5936,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5681,6 +7673,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>604836</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4BAF05-EC36-48BF-82CD-69F352B37CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE52C3D-64F7-44C3-9B60-F488C7469F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7612,7 +9681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA190A-905E-48CF-A4AB-04C8C10EA8F5}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
@@ -7986,4 +10055,351 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A25DA8-7F02-4F94-B9F3-0AB0BCD28A01}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>38524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>78117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>89644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9">
+        <v>76424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9">
+        <v>234008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9">
+        <v>427545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9">
+        <v>544043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9">
+        <v>599962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>35</v>
+      </c>
+      <c r="B12" s="9">
+        <v>602880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>40</v>
+      </c>
+      <c r="B13" s="9">
+        <v>568248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45</v>
+      </c>
+      <c r="B14" s="9">
+        <v>491362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9">
+        <v>461386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>55</v>
+      </c>
+      <c r="B16" s="9">
+        <v>315912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>60</v>
+      </c>
+      <c r="B17" s="9">
+        <v>214037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>65</v>
+      </c>
+      <c r="B18" s="9">
+        <v>114984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>70</v>
+      </c>
+      <c r="B19" s="9">
+        <v>77981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>75</v>
+      </c>
+      <c r="B20" s="9">
+        <v>58108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>80</v>
+      </c>
+      <c r="B21" s="9">
+        <v>31854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>85</v>
+      </c>
+      <c r="B22" s="9">
+        <v>19420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9">
+        <v>30589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9">
+        <v>49854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9">
+        <v>35521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9">
+        <v>27269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>15</v>
+      </c>
+      <c r="B31" s="9">
+        <v>58142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>20</v>
+      </c>
+      <c r="B32" s="9">
+        <v>60034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>25</v>
+      </c>
+      <c r="B33" s="9">
+        <v>69386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9">
+        <v>85411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9">
+        <v>100875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9">
+        <v>113284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>45</v>
+      </c>
+      <c r="B37" s="9">
+        <v>123439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>50</v>
+      </c>
+      <c r="B38" s="9">
+        <v>138311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>55</v>
+      </c>
+      <c r="B39" s="9">
+        <v>119159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>60</v>
+      </c>
+      <c r="B40" s="9">
+        <v>108399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>65</v>
+      </c>
+      <c r="B41" s="9">
+        <v>85973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>70</v>
+      </c>
+      <c r="B42" s="9">
+        <v>78450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>75</v>
+      </c>
+      <c r="B43" s="9">
+        <v>82820</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>80</v>
+      </c>
+      <c r="B44" s="9">
+        <v>61662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>85</v>
+      </c>
+      <c r="B45" s="9">
+        <v>45068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/results/ExternalCauses.xlsx
+++ b/results/ExternalCauses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\RosBRIS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836F510-2D33-4905-AF1D-CBCA598151B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455824A4-193F-4E8B-A901-E65DE0304EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1695" windowWidth="24750" windowHeight="19320" activeTab="3" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
+    <workbookView xWindow="17175" yWindow="2265" windowWidth="24750" windowHeight="19320" activeTab="3" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,10 +443,10 @@
                   <c:v>5.1841109999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.8825260000000004</c:v>
+                  <c:v>9.4283769999999993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.081531</c:v>
+                  <c:v>9.6203219999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,10 +882,10 @@
                   <c:v>8.3544280000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.612850999999999</c:v>
+                  <c:v>14.958285999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.845208</c:v>
+                  <c:v>15.192517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,10 +1321,10 @@
                   <c:v>2.4070870000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4397229999999999</c:v>
+                  <c:v>4.2851410000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.5218470000000002</c:v>
+                  <c:v>4.3583119999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,10 +1802,10 @@
                   <c:v>8.3544280000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.612850999999999</c:v>
+                  <c:v>14.958285999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.845208</c:v>
+                  <c:v>15.192517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,10 +2252,10 @@
                   <c:v>11386</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41360</c:v>
+                  <c:v>12951</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>51187</c:v>
+                  <c:v>16059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,10 +2495,10 @@
                   <c:v>11313</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37639</c:v>
+                  <c:v>11761</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38313</c:v>
+                  <c:v>12002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,61 +2855,61 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>38524</c:v>
+                  <c:v>30808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78117</c:v>
+                  <c:v>57615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89644</c:v>
+                  <c:v>68501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76424</c:v>
+                  <c:v>59328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234008</c:v>
+                  <c:v>184234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>427545</c:v>
+                  <c:v>338681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>544043</c:v>
+                  <c:v>415488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>599962</c:v>
+                  <c:v>445571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>602880</c:v>
+                  <c:v>452214</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>568248</c:v>
+                  <c:v>449360</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>491362</c:v>
+                  <c:v>400620</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>461386</c:v>
+                  <c:v>334062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>315912</c:v>
+                  <c:v>231339</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>214037</c:v>
+                  <c:v>146013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114984</c:v>
+                  <c:v>90232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77981</c:v>
+                  <c:v>61553</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58108</c:v>
+                  <c:v>41873</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31854</c:v>
+                  <c:v>22706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19420</c:v>
+                  <c:v>14706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,61 +3286,61 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>30589</c:v>
+                  <c:v>24585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49854</c:v>
+                  <c:v>37298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35521</c:v>
+                  <c:v>27390</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27269</c:v>
+                  <c:v>21380</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58142</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60034</c:v>
+                  <c:v>47261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69386</c:v>
+                  <c:v>53031</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85411</c:v>
+                  <c:v>63416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100875</c:v>
+                  <c:v>75068</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113284</c:v>
+                  <c:v>89956</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123439</c:v>
+                  <c:v>101816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>138311</c:v>
+                  <c:v>105027</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>119159</c:v>
+                  <c:v>91868</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108399</c:v>
+                  <c:v>78466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>85973</c:v>
+                  <c:v>65314</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78450</c:v>
+                  <c:v>61088</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82820</c:v>
+                  <c:v>59226</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61662</c:v>
+                  <c:v>43825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45068</c:v>
+                  <c:v>32369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8049,7 +8049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1F0746-641B-49AD-81F7-E7E4BD2274DB}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8065,7 +8067,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4">
-        <v>84686769</v>
+        <v>69488315</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>19</v>
@@ -8081,187 +8083,187 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1204327</v>
+        <v>1037266</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="5">
         <f>100*A3/$A$20</f>
-        <v>18.476708332297754</v>
+        <v>20.886689469001993</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1036719</v>
+        <v>847377</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E17" si="0">100*A4/$A$20</f>
-        <v>15.905277043154719</v>
+        <v>17.063029408246777</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>608791</v>
+        <v>527647</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>9.3400328501543868</v>
+        <v>10.624853256783211</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>595235</v>
+        <v>511748</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>9.1320575592635986</v>
+        <v>10.304706374626019</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>591185</v>
+        <v>393346</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>9.069922716529188</v>
+        <v>7.9205293105857688</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>448547</v>
+        <v>342427</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>6.8815795812326384</v>
+        <v>6.8952095362249848</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>425094</v>
+        <v>297007</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>6.521765145022723</v>
+        <v>5.9806192231499686</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>398527</v>
+        <v>269280</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>6.1141759186214593</v>
+        <v>5.4223002973324652</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>321469</v>
+        <v>195968</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>4.9319569775280518</v>
+        <v>3.9460685705126579</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>252614</v>
+        <v>146128</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>3.875587941360664</v>
+        <v>2.9424758535672848</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>197086</v>
+        <v>123307</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>3.0236808926306851</v>
+        <v>2.4829455687877831</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>165876</v>
+        <v>118279</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>2.5448590551637738</v>
+        <v>2.381700300312636</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>163244</v>
+        <v>69060</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>2.5044790783546449</v>
+        <v>1.3906122197481434</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>80404</v>
+        <v>62585</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>1.233553060547566</v>
+        <v>1.2602297389652122</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>20160</v>
+        <v>18015</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>0.30929343938907183</v>
+        <v>0.36275527278834058</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>8804</v>
+        <v>6718</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -8275,11 +8277,11 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>SUM(A3:A18)</f>
-        <v>6518082</v>
+        <v>4966158</v>
       </c>
       <c r="D20" s="5">
         <f>100*A20/D1</f>
-        <v>7.6966946277050665</v>
+        <v>7.1467526590621748</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -8293,7 +8295,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4">
-        <v>41400451</v>
+        <v>33927047</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="3"/>
@@ -8310,194 +8312,194 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>948140</v>
+        <v>816465</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="5">
         <f>100*A24/$A$41</f>
-        <v>18.795754610474866</v>
+        <v>21.235001568310455</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>818240</v>
+        <v>667274</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E39" si="1">100*A25/$A$41</f>
-        <v>16.220640678038006</v>
+        <v>17.354772631396067</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>467694</v>
+        <v>417456</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="1"/>
-        <v>9.2714806429339891</v>
+        <v>10.857389863252692</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>458937</v>
+        <v>393793</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>9.0978834704447689</v>
+        <v>10.24195155039062</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>454565</v>
+        <v>335149</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="1"/>
-        <v>9.0112137390158704</v>
+        <v>8.7167111151337533</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>381797</v>
+        <v>240195</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="1"/>
-        <v>7.5686741652239879</v>
+        <v>6.247103307184422</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>317441</v>
+        <v>217106</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="1"/>
-        <v>6.2928925467797496</v>
+        <v>5.6465938533673938</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>301999</v>
+        <v>192043</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="1"/>
-        <v>5.9867731522863705</v>
+        <v>4.9947436891759533</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>229414</v>
+        <v>150748</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
-        <v>4.5478613371521934</v>
+        <v>3.9207241172856944</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>194410</v>
+        <v>112270</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
-        <v>3.8539484188225566</v>
+        <v>2.9199703919631763</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>143371</v>
+        <v>97860</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="1"/>
-        <v>2.8421605820431499</v>
+        <v>2.5451884079230109</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>127336</v>
+        <v>78910</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="1"/>
-        <v>2.5242856635933801</v>
+        <v>2.0523279917147432</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>108285</v>
+        <v>59618</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="1"/>
-        <v>2.1466221106537757</v>
+        <v>1.5505726803960154</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>69364</v>
+        <v>45598</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="1"/>
-        <v>1.3750592979949992</v>
+        <v>1.1859339977976031</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>18227</v>
+        <v>16271</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="1"/>
-        <v>0.36132872707102892</v>
+        <v>0.42318373784299312</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>5217</v>
+        <v>4146</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="1"/>
-        <v>0.10342085747130948</v>
+        <v>0.10783109686540775</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -8507,11 +8509,11 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f>SUM(A24:A39)</f>
-        <v>5044437</v>
+        <v>3844902</v>
       </c>
       <c r="D41" s="5">
         <f>100*A41/D22</f>
-        <v>12.184497700278676</v>
+        <v>11.332851927843882</v>
       </c>
       <c r="E41" s="5"/>
     </row>
@@ -8525,7 +8527,7 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4">
-        <v>43286318</v>
+        <v>35561268</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="3"/>
@@ -8542,194 +8544,194 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>256187</v>
+        <v>220801</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="5">
         <f>100*A45/$A$62</f>
-        <v>17.384592208158821</v>
+        <v>19.69225637632017</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>218480</v>
+        <v>180102</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" ref="E46:E60" si="2">100*A46/$A$62</f>
-        <v>14.825833104874718</v>
+        <v>16.062494091457989</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>154226</v>
+        <v>117955</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="2"/>
-        <v>10.46562127623768</v>
+        <v>10.519880348679786</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>136298</v>
+        <v>110191</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="2"/>
-        <v>9.2490452239482526</v>
+        <v>9.8274438175691952</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>123491</v>
+        <v>102233</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="2"/>
-        <v>8.3799750821772427</v>
+        <v>9.1177052917348185</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>123095</v>
+        <v>79901</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="2"/>
-        <v>8.3531029203796852</v>
+        <v>7.1260138166238276</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>92055</v>
+        <v>77237</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="2"/>
-        <v>6.2467597330155726</v>
+        <v>6.8884235385611516</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>81086</v>
+        <v>58197</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="2"/>
-        <v>5.5024144230221141</v>
+        <v>5.1903308605155996</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>66750</v>
+        <v>45220</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="2"/>
-        <v>4.5295878787549775</v>
+        <v>4.0329701103581872</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>58203</v>
+        <v>39369</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="2"/>
-        <v>3.9495970532910256</v>
+        <v>3.5111455169104704</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54959</v>
+        <v>33859</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="2"/>
-        <v>3.7294624753332557</v>
+        <v>3.0197331925390944</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>53715</v>
+        <v>25447</v>
       </c>
       <c r="C56" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>3.645045886252039</v>
+        <v>2.2695044316294735</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>38540</v>
+        <v>16987</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="2"/>
-        <v>2.6152856456511886</v>
+        <v>1.5149947648088129</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>11040</v>
+        <v>9442</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="2"/>
-        <v>0.749163298598576</v>
+        <v>0.84208986691733745</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>3586</v>
+        <v>2573</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="2"/>
-        <v>0.24334235405566065</v>
+        <v>0.22947439393966421</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>1933</v>
+        <v>1744</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="2"/>
-        <v>0.13117143624918909</v>
+        <v>0.15553958143442456</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8738,11 +8740,11 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f>SUM(A45:A60)</f>
-        <v>1473644</v>
+        <v>1121258</v>
       </c>
       <c r="D62" s="5">
         <f>100*A62/D43</f>
-        <v>3.4044106038309843</v>
+        <v>3.1530315510684264</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8788,8 +8790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5AD270-4DE4-4DF9-98BB-EB68CF870FDE}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8988,7 +8990,7 @@
         <v>1989</v>
       </c>
       <c r="B26" s="5">
-        <v>9.8825260000000004</v>
+        <v>9.4283769999999993</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8996,7 +8998,7 @@
         <v>1990</v>
       </c>
       <c r="B27" s="5">
-        <v>10.081531</v>
+        <v>9.6203219999999998</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -9193,7 +9195,7 @@
         <v>1989</v>
       </c>
       <c r="B55" s="5">
-        <v>15.612850999999999</v>
+        <v>14.958285999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -9201,7 +9203,7 @@
         <v>1990</v>
       </c>
       <c r="B56" s="5">
-        <v>15.845208</v>
+        <v>15.192517</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -9398,7 +9400,7 @@
         <v>1989</v>
       </c>
       <c r="B84" s="5">
-        <v>4.4397229999999999</v>
+        <v>4.2851410000000003</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -9406,7 +9408,7 @@
         <v>1990</v>
       </c>
       <c r="B85" s="5">
-        <v>4.5218470000000002</v>
+        <v>4.3583119999999997</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -9659,7 +9661,7 @@
         <v>1989</v>
       </c>
       <c r="B120" s="5">
-        <v>15.612850999999999</v>
+        <v>14.958285999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -9667,7 +9669,7 @@
         <v>1990</v>
       </c>
       <c r="B121" s="5">
-        <v>15.845208</v>
+        <v>15.192517</v>
       </c>
     </row>
   </sheetData>
@@ -9682,7 +9684,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10033,10 +10035,10 @@
         <v>1989</v>
       </c>
       <c r="B32" s="1">
-        <v>41360</v>
+        <v>12951</v>
       </c>
       <c r="C32" s="1">
-        <v>37639</v>
+        <v>11761</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -10044,10 +10046,10 @@
         <v>1990</v>
       </c>
       <c r="B33" s="1">
-        <v>51187</v>
+        <v>16059</v>
       </c>
       <c r="C33" s="1">
-        <v>38313</v>
+        <v>12002</v>
       </c>
     </row>
   </sheetData>
@@ -10062,7 +10064,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10085,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>38524</v>
+        <v>30808</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10093,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>78117</v>
+        <v>57615</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10101,7 +10103,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>89644</v>
+        <v>68501</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10109,7 +10111,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="9">
-        <v>76424</v>
+        <v>59328</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10117,7 +10119,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="9">
-        <v>234008</v>
+        <v>184234</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10125,7 +10127,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="9">
-        <v>427545</v>
+        <v>338681</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10133,7 +10135,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="9">
-        <v>544043</v>
+        <v>415488</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10141,7 +10143,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="9">
-        <v>599962</v>
+        <v>445571</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -10149,7 +10151,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="9">
-        <v>602880</v>
+        <v>452214</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -10157,7 +10159,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="9">
-        <v>568248</v>
+        <v>449360</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10165,7 +10167,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="9">
-        <v>491362</v>
+        <v>400620</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -10173,7 +10175,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="9">
-        <v>461386</v>
+        <v>334062</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -10181,7 +10183,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="9">
-        <v>315912</v>
+        <v>231339</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -10189,7 +10191,7 @@
         <v>60</v>
       </c>
       <c r="B17" s="9">
-        <v>214037</v>
+        <v>146013</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10197,7 +10199,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="9">
-        <v>114984</v>
+        <v>90232</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -10205,7 +10207,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="9">
-        <v>77981</v>
+        <v>61553</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -10213,7 +10215,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="9">
-        <v>58108</v>
+        <v>41873</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -10221,7 +10223,7 @@
         <v>80</v>
       </c>
       <c r="B21" s="9">
-        <v>31854</v>
+        <v>22706</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -10229,7 +10231,7 @@
         <v>85</v>
       </c>
       <c r="B22" s="9">
-        <v>19420</v>
+        <v>14706</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -10250,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="9">
-        <v>30589</v>
+        <v>24585</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -10258,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="9">
-        <v>49854</v>
+        <v>37298</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -10266,7 +10268,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="9">
-        <v>35521</v>
+        <v>27390</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -10274,7 +10276,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="9">
-        <v>27269</v>
+        <v>21380</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -10282,7 +10284,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="9">
-        <v>58142</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -10290,7 +10292,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="9">
-        <v>60034</v>
+        <v>47261</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -10298,7 +10300,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="9">
-        <v>69386</v>
+        <v>53031</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -10306,7 +10308,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9">
-        <v>85411</v>
+        <v>63416</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -10314,7 +10316,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="9">
-        <v>100875</v>
+        <v>75068</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -10322,7 +10324,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="9">
-        <v>113284</v>
+        <v>89956</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -10330,7 +10332,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="9">
-        <v>123439</v>
+        <v>101816</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -10338,7 +10340,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="9">
-        <v>138311</v>
+        <v>105027</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -10346,7 +10348,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="9">
-        <v>119159</v>
+        <v>91868</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -10354,7 +10356,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="9">
-        <v>108399</v>
+        <v>78466</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -10362,7 +10364,7 @@
         <v>65</v>
       </c>
       <c r="B41" s="9">
-        <v>85973</v>
+        <v>65314</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -10370,7 +10372,7 @@
         <v>70</v>
       </c>
       <c r="B42" s="9">
-        <v>78450</v>
+        <v>61088</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -10378,7 +10380,7 @@
         <v>75</v>
       </c>
       <c r="B43" s="9">
-        <v>82820</v>
+        <v>59226</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -10386,7 +10388,7 @@
         <v>80</v>
       </c>
       <c r="B44" s="9">
-        <v>61662</v>
+        <v>43825</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -10394,7 +10396,7 @@
         <v>85</v>
       </c>
       <c r="B45" s="9">
-        <v>45068</v>
+        <v>32369</v>
       </c>
     </row>
   </sheetData>

--- a/results/ExternalCauses.xlsx
+++ b/results/ExternalCauses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\RosBRIS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455824A4-193F-4E8B-A901-E65DE0304EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9664B301-1DD4-4966-96BA-BE4B17D6C179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17175" yWindow="2265" windowWidth="24750" windowHeight="19320" activeTab="3" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
+    <workbookView xWindow="1755" yWindow="3165" windowWidth="22635" windowHeight="19320" activeTab="2" xr2:uid="{4AA5B074-0269-430E-8786-510EFB6F3383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Неблагоприятные реакции на лекарственные и другие вещества</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>возраст</t>
+  </si>
+  <si>
+    <t>1966-1990</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2044,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2284,7 +2287,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9681,10 +9684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA190A-905E-48CF-A4AB-04C8C10EA8F5}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10050,6 +10053,19 @@
       </c>
       <c r="C33" s="1">
         <v>12002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <f>SUM(B9:B33)</f>
+        <v>527644</v>
+      </c>
+      <c r="C36" s="1">
+        <f>SUM(C9:C33)</f>
+        <v>269280</v>
       </c>
     </row>
   </sheetData>
@@ -10063,8 +10079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A25DA8-7F02-4F94-B9F3-0AB0BCD28A01}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
